--- a/Chapter 4/student_info.xlsx
+++ b/Chapter 4/student_info.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liverollins-my.sharepoint.com/personal/jjasser_rollins_edu/Documents/Book Publishing/RfromScratch/Chapter 4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{7F5EF8BC-2A4D-44CF-B624-BD169EE86D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:40009_{7F5EF8BC-2A4D-44CF-B624-BD169EE86D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CBB3408B-A0CF-4F16-B3B3-31497F1F4BF5}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="8170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="student_info" sheetId="1" r:id="rId1"/>
+    <sheet name="teachers_info" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>ID</t>
   </si>
@@ -53,12 +54,27 @@
   </si>
   <si>
     <t>Physics</t>
+  </si>
+  <si>
+    <t>Dr. Smith</t>
+  </si>
+  <si>
+    <t>Dr. Doe</t>
+  </si>
+  <si>
+    <t>Dr. Johnson</t>
+  </si>
+  <si>
+    <t>Dr. Brown</t>
+  </si>
+  <si>
+    <t>Department</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -912,11 +928,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -983,4 +999,78 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14719EFB-5A92-4AB5-90A0-26F01151B8F8}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Chapter 4/student_info.xlsx
+++ b/Chapter 4/student_info.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liverollins-my.sharepoint.com/personal/jjasser_rollins_edu/Documents/Book Publishing/RfromScratch/Chapter 4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:40009_{7F5EF8BC-2A4D-44CF-B624-BD169EE86D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CBB3408B-A0CF-4F16-B3B3-31497F1F4BF5}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:40009_{7F5EF8BC-2A4D-44CF-B624-BD169EE86D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F4491E4-CB05-4D64-824E-820854680E27}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="8170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="student_info" sheetId="1" r:id="rId1"/>
-    <sheet name="teachers_info" sheetId="2" r:id="rId2"/>
+    <sheet name="prof_info" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -610,6 +610,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
